--- a/2_OOP/data1.xlsx
+++ b/2_OOP/data1.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:C16"/>
+  <dimension ref="A2:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A14" sqref="A3:A14"/>
@@ -561,6 +561,16 @@
         </is>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Bentje</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>2300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
